--- a/datamining/final_data/sorted2007_nltk.xlsx
+++ b/datamining/final_data/sorted2007_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJZ2"/>
+  <dimension ref="A1:AJF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,49 +517,49 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>academic</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>university</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>technology</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>mathematical</t>
@@ -567,7 +567,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -582,17 +582,17 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>social</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
@@ -602,67 +602,67 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>challenging</t>
+          <t>field</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>types</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>search</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>nurturing</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>lane</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>fast</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -682,67 +682,67 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>oes</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>acceleration</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>oes</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>presidential</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>aspirations</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>leadership</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>effort</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>talented</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>aspirations</t>
-        </is>
-      </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>model</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>models</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
@@ -772,29 +772,29 @@
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
+          <t>experiences</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
           <t>information</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>american</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>learners</t>
@@ -802,597 +802,597 @@
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>standards</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>standards</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>vision</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
+          <t>21st</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>overexcitabilities</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>coherence</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>century</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>overexcitabilities</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>coherence</t>
-        </is>
-      </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>college</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>vision</t>
+          <t>self-concepts</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>ethnic</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>mathematically</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>self-concepts</t>
+          <t>training</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>data</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>article</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>also</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>age</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>conceptual</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>searches</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>conceptual</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>above-level</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>predicts</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>ogo</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>peer</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>predicts</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
           <t>considerations</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>searches</t>
+          <t>based</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>five</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>ogo</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>support</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>present</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
           <t>socioaffective</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>state</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>components</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>school-within-a-school</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
           <t>several</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>components</t>
-        </is>
-      </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>school-within-a-school</t>
+          <t>one</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>among</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>different</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>including</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>special</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>scales</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>standardization</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>commandments</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>standardization</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>among</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>published</t>
-        </is>
-      </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>commandments</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>moderately</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>scales</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
+          <t>intellectually</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
           <t>african</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>intellectually</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>moderately</t>
-        </is>
-      </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>best</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>type</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>females</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>males</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>group</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>using</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>many</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>self-esteem</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
@@ -1407,137 +1407,137 @@
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>el</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>benefits</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>general</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>benefits</t>
+          <t>meta-analyses</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>well</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>styles</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
           <t>next</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analyses</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>self-esteem</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>mildly</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>failure</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>survey-revised</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>el</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>empirical</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>attribution</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>attribute</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>mildly</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>failure</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
@@ -1547,54 +1547,54 @@
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>four</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>predictors</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>ceiling</t>
@@ -1602,3640 +1602,3540 @@
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>maturity</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>used</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
           <t>basis</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>maturity</t>
+          <t>hierarchical</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>explain</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
           <t>presented</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>recommendations</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>myers-briggs</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>predictors</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
+          <t>e/i</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>norming</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>tendency</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>decisions</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>baccalaureate</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>express</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>orienting</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
           <t>principles</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>explain</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>learned</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>norming</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>orienting</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>currently</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>tendency</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>approaches</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>baccalaureate</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>myers-briggs</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>express</t>
-        </is>
-      </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>mbti</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>e/i</t>
+          <t>grs-s</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>comparisons</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>status</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>mbti</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>correctly</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>protocol</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>showing</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>scales-school</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>self-perceptions</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
           <t>first</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>self-perceptions</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>districts</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>represents</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>tracks</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>perceived</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>scales-school</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>grs-s</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>diagnostic</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>correctly</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>tracks</t>
-        </is>
-      </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>represents</t>
+          <t>quantitative</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>nonverbal</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>received</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>showing</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>stimulation</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>others</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>young</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>little</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>open-ended</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>continues</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>continues</t>
+          <t>design</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>open-ended</t>
+          <t>along</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>efficacy</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>time</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>received</t>
+          <t>analyzes</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>contextual</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>stimulation</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>differentiate</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>demonstrates</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
+          <t>documented</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>investigation</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>facilitating</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
           <t>appropriate</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>contextual</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>investigation</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>analyzes</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>psychosocial</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>therefore</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>demonstrates</t>
+          <t>states</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>differentiate</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>documented</t>
+          <t>hispanic</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>28</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>white</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>throughout</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>show</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>psychosocial</t>
+          <t>investigating</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>years</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>within</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>facilitating</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>area</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>new</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>available</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>investigating</t>
+          <t>heterogeneous</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>hispanic</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>small</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>classrooms</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>dimension</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>conduct</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>across</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
           <t>greatest</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>classrooms</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>addition</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>conduct</t>
-        </is>
-      </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>modalities</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>stated</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>last</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>typologies</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>list</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>stands</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>dimension</t>
+          <t>responsible</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneous</t>
+          <t>need</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>professionals</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
+          <t>reminder</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
           <t>pertain</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>modalities</t>
-        </is>
-      </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>policies</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>realistic</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>inclusion</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>detailed</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>includes</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>modeling</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
           <t>measured</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>tended</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>aimed</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>alone</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>clarifying</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>directly</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>ensue</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>exact</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>expectations</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>explanations</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>tended</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>modeling</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>aimed</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>alone</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>clarifying</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>detailed</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>directly</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>positively</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>professionals</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>realistic</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>reminder</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>ensue</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>responsible</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>stands</t>
-        </is>
-      </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>includes</t>
+          <t>classified</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>stated</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>idiosyncratic</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>typologies</t>
+          <t>body</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>reconsiderations</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>reconsideration</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>reconceptualization</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>policies</t>
+          <t>persuasive</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>necessarily</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>management</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>functions</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>fully</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>essays</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>entire</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>descriptions</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>derive</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>covers</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>appropriately</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>researched</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>argued</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
           <t>synthesis</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>necessarily</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>descriptions</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>entire</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>essays</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>fully</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>functions</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>idiosyncratic</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>management</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>synthesized</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>warranted</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>warranted</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>researched</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>traditional</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>persuasive</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>reconceptualization</t>
-        </is>
-      </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>reconsideration</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>synthesized</t>
+          <t>suggesting</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>reconsiderations</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>sought</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>requires</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>feeling</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>graduates</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>follow-up</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>classified</t>
+          <t>topic</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>appropriately</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>exert</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>argued</t>
+          <t>reversing</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>covers</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>given</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
+          <t>legacy</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>predictive</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>occurrence</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>behavioral</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>deal</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>overwhelmingly</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>partners</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>praised</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>profound</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>radical</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>ninety-five</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>reflecting</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>regretting</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>matured</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
           <t>respondents</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>extremely</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>matured</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RZ1" s="1" t="inlineStr">
         <is>
           <t>maturation</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>expression</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>deal</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>wealth</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>behavioral</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>wheat</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>8-10</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>excited</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
         <is>
           <t>beginning</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>underachieving</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>dating</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>non-interventional</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>empirical-commonly</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>makes</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>entered</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>interventional</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>instrumentation</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>guidelines</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>evidence-based</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
         <is>
           <t>evidence-speculative</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>8-10</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>wealth</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>washington</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>ninety-five</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>occurrence</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>predictive</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>reverse</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>reversing</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>suggesting</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>regretting</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>radical</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>underachieving</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>evidence-based</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>profound</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>praised</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>points</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>partners</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>overwhelmingly</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>reflecting</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>guidelines</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>instrumentation</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>graduates</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>interventional</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>follow-up</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>feeling</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>faculty</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>explanation</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>chose</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>reviewing</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>anecdotal</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>sorting</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>chaff</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>considered</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>describe</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>exert</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>e.g.</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>empirical-commonly</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>non-interventional</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>must</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>legacy</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>chaff</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>love</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>excited</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>explanation</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>entered</t>
+          <t>countries</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>decades</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>original</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>anecdotal</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>perhaps</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>sorting</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>dating</t>
+          <t>followed</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>mainland</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>material</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>chose</t>
+          <t>older</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>reviewing</t>
+          <t>past</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>foreign</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>makes</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>testing-using</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>thrive</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>rapidly</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>raise</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>united</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>pro-rams</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>problematic</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>obscure</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>surveyed</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="VC1" s="1" t="inlineStr">
         <is>
           <t>summarized</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
+      <c r="VD1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="US1" s="1" t="inlineStr">
+      <c r="VE1" s="1" t="inlineStr">
         <is>
           <t>remains</t>
         </is>
       </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>pro-rams</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="VF1" s="1" t="inlineStr">
         <is>
           <t>referents</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
+      <c r="VG1" s="1" t="inlineStr">
         <is>
           <t>readers</t>
         </is>
       </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
         <is>
           <t>qualitive</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>thrive</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>publications</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>icm</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>manually</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>critiques</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>research-based</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>schoolwide</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>familiar</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>electronically</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>critique</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>integrated</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>categorized</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>practical</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>exemplars</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>curricula</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>lite</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
         <is>
           <t>judged</t>
         </is>
       </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>testing-using</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>lite</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>manually</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>standardized</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>obscure</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>solve</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>younger</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>rapidly</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>paradigm</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>problematic</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>publications</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>decades</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>raise</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>familiar</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>implementing</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
         <is>
           <t>concludes</t>
         </is>
       </c>
-      <c r="VV1" s="1" t="inlineStr">
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>critiqued</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
         <is>
           <t>according</t>
         </is>
       </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>icm</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>alignment</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>applications</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>derived</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
         <is>
           <t>high-level</t>
         </is>
       </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>older</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>followed</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>attributes</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>foreign</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>illustrate</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>accurate</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>ahead</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
         <is>
           <t>features</t>
         </is>
       </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>critiqued</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>curricula</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>mainland</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>derived</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
+      <c r="XA1" s="1" t="inlineStr">
         <is>
           <t>existing</t>
         </is>
       </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
+      <c r="XB1" s="1" t="inlineStr">
         <is>
           <t>enrichment</t>
         </is>
       </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>implementing</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>illustrate</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>research-based</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>enough</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>dt</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>exemplars</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>countries</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
       <c r="XC1" s="1" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>together</t>
         </is>
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
-          <t>evaluated</t>
+          <t>systems</t>
         </is>
       </c>
       <c r="XE1" s="1" t="inlineStr">
         <is>
-          <t>accurate</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="XF1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>self-actualization</t>
         </is>
       </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>shape</t>
+          <t>role</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>schoolwide</t>
+          <t>resulting</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>religious</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
-          <t>practical</t>
+          <t>recognized</t>
         </is>
       </c>
       <c r="XK1" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>played</t>
         </is>
       </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>perhaps</t>
+          <t>network</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>past</t>
+          <t>mentor</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>electronically</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>critiques</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>integrated</t>
+          <t>artistic</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>categorized</t>
+          <t>family-level</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>individual-</t>
         </is>
       </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>intensities</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>critique</t>
+          <t>likert-type</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>self-actualization</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>resulting</t>
+          <t>membership</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>psychomotor</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>recognized</t>
+          <t>sensual</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>step</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>religious</t>
+          <t>subscales</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>systems</t>
+          <t>underlying</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
-          <t>together</t>
+          <t>univariate</t>
         </is>
       </c>
       <c r="YC1" s="1" t="inlineStr">
         <is>
-          <t>played</t>
+          <t>within-group</t>
         </is>
       </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>qualities</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>membership</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
+          <t>operating</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>multidimensional</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>favor</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>extend</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>imaginational</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>explained</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>tool</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>statistics</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>specificity</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>extend</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>favor</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>multidimensional</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>operating</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>psychometric</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>qualities</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>receiver</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>race/ethnicity</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>between-</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>collected</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>race/ethnicity</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>receiver</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>statistics</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>tool</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>artistic</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>within-group</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>univariate</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
       <c r="ZH1" s="1" t="inlineStr">
         <is>
-          <t>between-</t>
+          <t>convenience</t>
         </is>
       </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>collected</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>dabrowski</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>convenience</t>
+          <t>like</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>lived</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>dabrowski</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>explained</t>
+          <t>isolation</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>family-level</t>
+          <t>targeted</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>imaginational</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>individual-</t>
+          <t>south</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>intensities</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>likert-type</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>portion</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>performance-based</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>psychomotor</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>sensual</t>
+          <t>low-income</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>low</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>subscales</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>underlying</t>
+          <t>income</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>high-stakes</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
+          <t>employed</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>comparative</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>carolina</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>3-year</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>within-class</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>underserved</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>separate</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>task-identified</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>tend</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>three-year</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>subscale</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>selectivity</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>regard</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>programmatic</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>postsecondary</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>growth</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>tracked</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>gifted/honors</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>covariance</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>controlling</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>averages</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>verbal</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>self-perception</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>racial/ethnic</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>idea</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>resistance</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>possibly</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>per</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>indicates</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>increases</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>harmful</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>skipping</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>harm</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>arbitrarily</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>admission</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>unselected</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>pull-out</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>evaluations</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>ongoing</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>high-achieving</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
           <t>designated</t>
         </is>
       </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>lived</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>comparing</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>caucasian/non-hispanic</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>advised</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>administrations</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>accomplished</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>2-year</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>gifted/nonhonors</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
         <is>
           <t>discuss</t>
         </is>
       </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>subscale</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>selectivity</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>regard</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>programmatic</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>postsecondary</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>point</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>iii</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/nonhonors</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>gifted/honors</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>covariance</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>controlling</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>compare</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>averages</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>verbal</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>fidelity</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>extraversion/introversion</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>entp</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>enfp</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>e.</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>descriptive</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>subsample</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
         <is>
           <t>epistemic</t>
         </is>
       </c>
-      <c r="ABG1" s="1" t="inlineStr">
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>standards-based</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>quasi-experimental</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>javits-funded</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>integrating</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>indicating</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>gender-specific</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>genders</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>thinking/feeling</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>discovered</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>director</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>designing</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>communities</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>became</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>advanced-level</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>t/f</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>infp</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>sensing/intuition</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>s/n</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>reveal</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>residential</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>pairs</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>np</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>lntp</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>judging/perceiving</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>j/p</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>intj</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>focuses</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>subanalyses</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>favoring</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>housed</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>funded</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>fostering</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
         <is>
           <t>climate</t>
         </is>
       </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>unselected</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>possibly</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>unrelated</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>tailor</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>slightly</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>self-reported</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>participate</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
         <is>
           <t>530</t>
         </is>
       </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>unrelated</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>tailor</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>slightly</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>self-reported</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>resistance</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>robust</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>se</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>selected</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>participate</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>skipping</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>tracked</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>three-year</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>task-identified</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>separate</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>self-perception</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>advised</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>racial/ethnic</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>pull-out</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>caucasian/non-hispanic</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>placed</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>ongoing</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>monitor</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>inventory</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>fall</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>evaluations</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>comparing</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>administrations</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>strength</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>profiles</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>profile</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>portion</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>performance-based</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>perform</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>low-income</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>high-stakes</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>employed</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>component</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>comparative</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>carolina</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>3-year</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>2-year</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>accomplished</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>within-class</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>per</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>responses</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>infp</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>genders</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>gender-specific</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>admission</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>arbitrarily</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>extraversion/introversion</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>entp</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>enfp</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>associated</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>e.</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>descriptive</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>academy</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>cause</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>931</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>yield</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>subsample</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>subanalyses</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>standards-based</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>respond</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>indicator</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>intj</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>quasi-experimental</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>j/p</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>isolation</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>diverse</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>discovered</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>director</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>desire</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>designing</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>courses</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>communities</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>became</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>advanced-level</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>thinking/feeling</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>t/f</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>sensing/intuition</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>s/n</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>reveal</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>residential</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>pairs</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>np</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>lntp</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>judging/perceiving</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>broad</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
+      <c r="AHA1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
-      <c r="AGX1" s="1" t="inlineStr">
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>addresses</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>stakeholders</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
         <is>
           <t>challenges</t>
         </is>
       </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>harm</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>addresses</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>surveys</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>harmful</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>stakeholders</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>potentially</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>idea</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
+      <c r="AHH1" s="1" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="AHG1" s="1" t="inlineStr">
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
         <is>
           <t>raised</t>
         </is>
       </c>
-      <c r="AHH1" s="1" t="inlineStr">
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>demonstration</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>desired</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>differential</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>differentiation</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>emphases</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
         <is>
           <t>publicly</t>
         </is>
       </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>increases</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>indicates</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>integration</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>housed</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>funded</t>
-        </is>
-      </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>fostering</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>gains</t>
+          <t>traininc</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>southeastern</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>statewide</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>demonstrate</t>
+          <t>multigroup</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>fidelity</t>
+          <t>global</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>focuses</t>
+          <t>voluntarily</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>emphases</t>
+          <t>predictor</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>respectively</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>contributions</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>differential</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>desired</t>
+          <t>predicted</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>demonstration</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>favoring</t>
+          <t>171</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>javits-funded</t>
+          <t>ei</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>integrating</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>indicating</t>
+          <t>selfesteem</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>statewide</t>
+          <t>418</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>computers</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>voluntarily</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>traininc</t>
+          <t>counterparts</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>southeastern</t>
+          <t>mild</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>self-regulation</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>vocational</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>predictor</t>
+          <t>self-confidence</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>predicted</t>
+          <t>see</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>computers</t>
+          <t>olympians</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
           <t>employs</t>
         </is>
       </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>self-confidence</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>self-regulation</t>
-        </is>
-      </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>olympians</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>bayesian</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>attributions</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>attributing</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>finnish</t>
+          <t>203</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>vocational</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>mild</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>bayesian</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>multigroup</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>ei</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>counterparts</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>asian</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>respectively</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>selfesteem</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>global</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>attributing</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>attributions</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
         <is>
           <t>whereas</t>
         </is>
@@ -5264,67 +5164,67 @@
         <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="I2" t="n">
         <v>1.15</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
         <v>0.99</v>
       </c>
       <c r="L2" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.86</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.85</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
         <v>0.75</v>
       </c>
       <c r="S2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.7400000000000002</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.74</v>
       </c>
       <c r="V2" t="n">
         <v>0.74</v>
       </c>
       <c r="W2" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="X2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.65</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>0.64</v>
@@ -5333,19 +5233,19 @@
         <v>0.63</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>0.5599999999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.53</v>
@@ -5357,7 +5257,7 @@
         <v>0.52</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AN2" t="n">
         <v>0.5</v>
@@ -5393,7 +5293,7 @@
         <v>0.4899999999999999</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.46</v>
@@ -5408,10 +5308,10 @@
         <v>0.46</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BF2" t="n">
         <v>0.44</v>
@@ -5429,7 +5329,7 @@
         <v>0.44</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.44</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="BL2" t="n">
         <v>0.43</v>
@@ -5438,10 +5338,10 @@
         <v>0.43</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.4299999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BP2" t="n">
         <v>0.4000000000000001</v>
@@ -5456,10 +5356,10 @@
         <v>0.4</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BV2" t="n">
         <v>0.39</v>
@@ -5468,7 +5368,7 @@
         <v>0.39</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BY2" t="n">
         <v>0.38</v>
@@ -5483,13 +5383,13 @@
         <v>0.38</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="CF2" t="n">
         <v>0.37</v>
@@ -5516,34 +5416,34 @@
         <v>0.37</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CX2" t="n">
         <v>0.34</v>
@@ -5555,43 +5455,43 @@
         <v>0.34</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.34</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.34</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="DI2" t="n">
         <v>0.32</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DN2" t="n">
         <v>0.31</v>
@@ -5633,28 +5533,28 @@
         <v>0.3</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EI2" t="n">
         <v>0.28</v>
@@ -5678,13 +5578,13 @@
         <v>0.28</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="ES2" t="n">
         <v>0.27</v>
@@ -5702,16 +5602,16 @@
         <v>0.27</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="FB2" t="n">
         <v>0.26</v>
@@ -5756,10 +5656,10 @@
         <v>0.26</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FR2" t="n">
         <v>0.25</v>
@@ -5786,19 +5686,19 @@
         <v>0.25</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="GE2" t="n">
         <v>0.24</v>
@@ -5816,10 +5716,10 @@
         <v>0.24</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="GL2" t="n">
         <v>0.23</v>
@@ -5843,13 +5743,13 @@
         <v>0.23</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GV2" t="n">
         <v>0.22</v>
@@ -5894,19 +5794,19 @@
         <v>0.22</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HO2" t="n">
         <v>0.21</v>
@@ -5915,22 +5815,22 @@
         <v>0.21</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HW2" t="n">
         <v>0.2</v>
@@ -5948,13 +5848,13 @@
         <v>0.2</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IE2" t="n">
         <v>0.19</v>
@@ -5984,10 +5884,10 @@
         <v>0.19</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IP2" t="n">
         <v>0.18</v>
@@ -6062,34 +5962,34 @@
         <v>0.18</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JX2" t="n">
         <v>0.17</v>
@@ -6149,37 +6049,37 @@
         <v>0.17</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="LB2" t="n">
         <v>0.16</v>
@@ -6194,40 +6094,40 @@
         <v>0.16</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LR2" t="n">
         <v>0.15</v>
@@ -6287,40 +6187,40 @@
         <v>0.15</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MW2" t="n">
         <v>0.14</v>
@@ -6362,43 +6262,43 @@
         <v>0.14</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="NW2" t="n">
         <v>0.13</v>
@@ -6509,43 +6409,43 @@
         <v>0.13</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="PT2" t="n">
         <v>0.12</v>
@@ -6605,46 +6505,46 @@
         <v>0.12</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="RA2" t="n">
         <v>0.11</v>
@@ -6875,52 +6775,52 @@
         <v>0.11</v>
       </c>
       <c r="TY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UO2" t="n">
         <v>0.1</v>
@@ -7121,58 +7021,58 @@
         <v>0.1</v>
       </c>
       <c r="XC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XU2" t="n">
         <v>0.09</v>
@@ -7946,64 +7846,64 @@
         <v>0.09</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AIL2" t="n">
         <v>0.08</v>
@@ -8018,25 +7918,25 @@
         <v>0.08</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIW2" t="n">
         <v>0.07000000000000001</v>
@@ -8066,66 +7966,6 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJO2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJP2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJQ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJY2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AJZ2" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
